--- a/长江索道.xlsx
+++ b/长江索道.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0195A-E744-467E-9F5D-A15B4C4605C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B92F5-4A7C-49CC-A28A-EA055E9C60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1200px-长江索道，重庆_ChongQing_19-04-12_-_panoramio.jpg (1200×900) (wikimedia.org)</t>
-  </si>
-  <si>
     <t>(2018年2月6日，重庆长江索道被评定为国家AAAA级旅游景区。)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://youimg1.tripcdn.com/target/0105d120008270g13FC71.jpg?proc=source%2Ftrip</t>
+  </si>
+  <si>
+    <t>https://5b0988e595225.cdn.sohucs.com/images/20181010/37702d24c0834c76950ae5758d53d00b.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -102,12 +103,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,7 +394,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -410,16 +412,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -430,10 +432,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://upload.wikimedia.org/wikipedia/commons/thumb/8/86/%E9%95%BF%E6%B1%9F%E7%B4%A2%E9%81%93%EF%BC%8C%E9%87%8D%E5%BA%86_ChongQing_19-04-12_-_panoramio.jpg/1200px-%E9%95%BF%E6%B1%9F%E7%B4%A2%E9%81%93%EF%BC%8C%E9%87%8D%E5%BA%86_ChongQing_19-04-12_-_panoramio.jpg" xr:uid="{A8DC341D-A110-4829-B2BF-5D806ED41BE6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>